--- a/QuantStock/data/output/momentum_weekly_output_sample.xlsx
+++ b/QuantStock/data/output/momentum_weekly_output_sample.xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevProjects\TICSTest\QuantStock\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D63044-F16D-4679-B14B-57098BE9BE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C148046-533A-4AD5-950A-CD9A9640BA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-11-27" sheetId="2" r:id="rId1"/>
+    <sheet name="2020-01-03" sheetId="2" r:id="rId1"/>
+    <sheet name="2020-01-10" sheetId="3" r:id="rId2"/>
+    <sheet name="2020-01-17" sheetId="4" r:id="rId3"/>
+    <sheet name="2020-01-24" sheetId="5" r:id="rId4"/>
+    <sheet name="2020-01-31" sheetId="6" r:id="rId5"/>
+    <sheet name="2020-02-07" sheetId="7" r:id="rId6"/>
+    <sheet name="2020-02-14" sheetId="8" r:id="rId7"/>
+    <sheet name="2020-02-20" sheetId="9" r:id="rId8"/>
+    <sheet name="2020-02-28" sheetId="10" r:id="rId9"/>
+    <sheet name="2020-03-06" sheetId="11" r:id="rId10"/>
+    <sheet name="2020-03-13" sheetId="12" r:id="rId11"/>
+    <sheet name="2020-03-20" sheetId="13" r:id="rId12"/>
+    <sheet name="2020-03-27" sheetId="14" r:id="rId13"/>
+    <sheet name="2020-04-03" sheetId="15" r:id="rId14"/>
+    <sheet name="2020-04-09" sheetId="16" r:id="rId15"/>
+    <sheet name="2020-04-17" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,54 +46,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="33">
   <si>
     <t>MOMENTUM_ATH</t>
   </si>
   <si>
-    <t>2020-11-20</t>
+    <t>2019-12-27</t>
   </si>
   <si>
-    <t>2020-11-27</t>
+    <t>2020-01-03</t>
   </si>
   <si>
-    <t>2020-12-04</t>
+    <t>2020-01-10</t>
   </si>
   <si>
-    <t>Change</t>
+    <t>Change(C-B)</t>
   </si>
   <si>
-    <t>Gain</t>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Gain(D-B)</t>
+  </si>
+  <si>
+    <t>% Gain</t>
   </si>
   <si>
     <t>ADANIPORTS.NS</t>
   </si>
   <si>
+    <t>ULTRACEMCO.NS</t>
+  </si>
+  <si>
     <t>JSWSTEEL.NS</t>
+  </si>
+  <si>
+    <t>TCS.NS</t>
+  </si>
+  <si>
+    <t>BHARTIARTL.NS</t>
   </si>
   <si>
     <t>DRREDDY.NS</t>
   </si>
   <si>
-    <t>ASIANPAINT.NS</t>
-  </si>
-  <si>
     <t>KOTAKBANK.NS</t>
   </si>
   <si>
-    <t>TCS.NS</t>
+    <t>AXISBANK.NS</t>
   </si>
   <si>
     <t>INFRATEL.NS</t>
   </si>
   <si>
-    <t>AXISBANK.NS</t>
+    <t>ASIANPAINT.NS</t>
   </si>
   <si>
-    <t>ULTRACEMCO.NS</t>
+    <t>2020-01-17</t>
   </si>
   <si>
-    <t>BHARTIARTL.NS</t>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
   </si>
 </sst>
 </file>
@@ -134,11 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,21 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,235 +517,5042 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>359.72</v>
+      </c>
+      <c r="C2">
+        <v>378.32</v>
+      </c>
+      <c r="D2">
+        <v>387.76</v>
+      </c>
+      <c r="E2">
+        <v>18.59</v>
+      </c>
+      <c r="F2">
+        <v>5.17</v>
+      </c>
+      <c r="G2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4042.85</v>
+      </c>
+      <c r="C3">
+        <v>4205.9399999999996</v>
+      </c>
+      <c r="D3">
+        <v>4430.63</v>
+      </c>
+      <c r="E3">
+        <v>163.09</v>
+      </c>
+      <c r="F3">
+        <v>4.03</v>
+      </c>
+      <c r="G3">
+        <v>224.69</v>
+      </c>
+      <c r="H3">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="C4">
+        <v>266.81</v>
+      </c>
+      <c r="D4">
+        <v>272.14999999999998</v>
+      </c>
+      <c r="E4">
+        <v>3.48</v>
+      </c>
+      <c r="F4">
+        <v>1.32</v>
+      </c>
+      <c r="G4">
+        <v>5.34</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2157.17</v>
+      </c>
+      <c r="C5">
+        <v>2159.2800000000002</v>
+      </c>
+      <c r="D5">
+        <v>2171.94</v>
+      </c>
+      <c r="E5">
+        <v>2.11</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>12.66</v>
+      </c>
+      <c r="H5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>453.47</v>
+      </c>
+      <c r="C6">
+        <v>453.47</v>
+      </c>
+      <c r="D6">
+        <v>455.36</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.89</v>
+      </c>
+      <c r="H6">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2879.05</v>
+      </c>
+      <c r="C7">
+        <v>2865.44</v>
+      </c>
+      <c r="D7">
+        <v>2914.23</v>
+      </c>
+      <c r="E7">
+        <v>-13.61</v>
+      </c>
+      <c r="F7">
+        <v>-0.47</v>
+      </c>
+      <c r="G7">
+        <v>48.79</v>
+      </c>
+      <c r="H7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1685.6</v>
+      </c>
+      <c r="C8">
+        <v>1657.1</v>
+      </c>
+      <c r="D8">
+        <v>1684.7</v>
+      </c>
+      <c r="E8">
+        <v>-28.5</v>
+      </c>
+      <c r="F8">
+        <v>-1.69</v>
+      </c>
+      <c r="G8">
+        <v>27.6</v>
+      </c>
+      <c r="H8">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>760.15</v>
+      </c>
+      <c r="C9">
+        <v>742.95</v>
+      </c>
+      <c r="D9">
+        <v>740.05</v>
+      </c>
+      <c r="E9">
+        <v>-17.2</v>
+      </c>
+      <c r="F9">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="G9">
+        <v>-2.9</v>
+      </c>
+      <c r="H9">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>246.48</v>
+      </c>
+      <c r="C10">
+        <v>239.2</v>
+      </c>
+      <c r="D10">
+        <v>240.45</v>
+      </c>
+      <c r="E10">
+        <v>-7.28</v>
+      </c>
+      <c r="F10">
+        <v>-2.95</v>
+      </c>
+      <c r="G10">
+        <v>1.25</v>
+      </c>
+      <c r="H10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1800.65</v>
+      </c>
+      <c r="C11">
+        <v>1740.19</v>
+      </c>
+      <c r="D11">
+        <v>1781.08</v>
+      </c>
+      <c r="E11">
+        <v>-60.46</v>
+      </c>
+      <c r="F11">
+        <v>-3.36</v>
+      </c>
+      <c r="G11">
+        <v>40.89</v>
+      </c>
+      <c r="H11">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>14708.700000000003</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>369.66</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>2.5132064696404166E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2">
-        <v>375.85</v>
+        <v>2908.36</v>
       </c>
       <c r="C2">
-        <v>411.55</v>
+        <v>3150.65</v>
       </c>
       <c r="D2">
-        <v>453.7</v>
+        <v>2866.63</v>
       </c>
       <c r="E2">
-        <v>35.700000000000003</v>
+        <v>242.29</v>
       </c>
       <c r="F2">
-        <v>42.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.33</v>
+      </c>
+      <c r="G2">
+        <v>-284.02</v>
+      </c>
+      <c r="H2">
+        <v>-9.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1967</v>
+      </c>
+      <c r="C3">
+        <v>2081.38</v>
+      </c>
+      <c r="D3">
+        <v>1776.37</v>
+      </c>
+      <c r="E3">
+        <v>114.37</v>
+      </c>
+      <c r="F3">
+        <v>5.81</v>
+      </c>
+      <c r="G3">
+        <v>-305.01</v>
+      </c>
+      <c r="H3">
+        <v>-14.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1786.44</v>
+      </c>
+      <c r="C4">
+        <v>1872.93</v>
+      </c>
+      <c r="D4">
+        <v>1793.37</v>
+      </c>
+      <c r="E4">
+        <v>86.49</v>
+      </c>
+      <c r="F4">
+        <v>4.84</v>
+      </c>
+      <c r="G4">
+        <v>-79.56</v>
+      </c>
+      <c r="H4">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>230.82</v>
+      </c>
+      <c r="C5">
+        <v>233.86</v>
+      </c>
+      <c r="D5">
+        <v>210.45</v>
+      </c>
+      <c r="E5">
+        <v>3.04</v>
+      </c>
+      <c r="F5">
+        <v>1.32</v>
+      </c>
+      <c r="G5">
+        <v>-23.41</v>
+      </c>
+      <c r="H5">
+        <v>-10.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1620.35</v>
+      </c>
+      <c r="C6">
+        <v>1631.05</v>
+      </c>
+      <c r="D6">
+        <v>1470.05</v>
+      </c>
+      <c r="E6">
+        <v>10.7</v>
+      </c>
+      <c r="F6">
+        <v>0.66</v>
+      </c>
+      <c r="G6">
+        <v>-161</v>
+      </c>
+      <c r="H6">
+        <v>-9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>338.46</v>
+      </c>
+      <c r="C7">
+        <v>337.67</v>
+      </c>
+      <c r="D7">
+        <v>289.55</v>
+      </c>
+      <c r="E7">
+        <v>-0.79</v>
+      </c>
+      <c r="F7">
+        <v>-0.23</v>
+      </c>
+      <c r="G7">
+        <v>-48.12</v>
+      </c>
+      <c r="H7">
+        <v>-14.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>521.63</v>
+      </c>
+      <c r="C8">
+        <v>517.29</v>
+      </c>
+      <c r="D8">
+        <v>490.09</v>
+      </c>
+      <c r="E8">
+        <v>-4.33</v>
+      </c>
+      <c r="F8">
+        <v>-0.83</v>
+      </c>
+      <c r="G8">
+        <v>-27.2</v>
+      </c>
+      <c r="H8">
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4206.34</v>
+      </c>
+      <c r="C9">
+        <v>4154.75</v>
+      </c>
+      <c r="D9">
+        <v>3776.99</v>
+      </c>
+      <c r="E9">
+        <v>-51.59</v>
+      </c>
+      <c r="F9">
+        <v>-1.23</v>
+      </c>
+      <c r="G9">
+        <v>-377.76</v>
+      </c>
+      <c r="H9">
+        <v>-9.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>206.72</v>
+      </c>
+      <c r="C10">
+        <v>196.35</v>
+      </c>
+      <c r="D10">
+        <v>219.06</v>
+      </c>
+      <c r="E10">
+        <v>-10.36</v>
+      </c>
+      <c r="F10">
+        <v>-5.01</v>
+      </c>
+      <c r="G10">
+        <v>22.7</v>
+      </c>
+      <c r="H10">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>697.3</v>
+      </c>
+      <c r="C11">
+        <v>657.65</v>
+      </c>
+      <c r="D11">
+        <v>568.79999999999995</v>
+      </c>
+      <c r="E11">
+        <v>-39.65</v>
+      </c>
+      <c r="F11">
+        <v>-5.69</v>
+      </c>
+      <c r="G11">
+        <v>-88.85</v>
+      </c>
+      <c r="H11">
+        <v>-13.51</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>14833.580000000002</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-1372.2299999999998</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-9.2508349299359943E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>196.35</v>
+      </c>
+      <c r="C2">
+        <v>219.06</v>
+      </c>
+      <c r="D2">
+        <v>142.81</v>
+      </c>
+      <c r="E2">
+        <v>22.7</v>
+      </c>
+      <c r="F2">
+        <v>11.56</v>
+      </c>
+      <c r="G2">
+        <v>-76.25</v>
+      </c>
+      <c r="H2">
+        <v>-34.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B3">
-        <v>336.15</v>
+        <v>1872.93</v>
       </c>
       <c r="C3">
-        <v>350.2</v>
+        <v>1793.37</v>
       </c>
       <c r="D3">
-        <v>370.4</v>
+        <v>1738.75</v>
       </c>
       <c r="E3">
-        <v>14.05</v>
+        <v>-79.56</v>
       </c>
       <c r="F3">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-4.25</v>
+      </c>
+      <c r="G3">
+        <v>-54.62</v>
+      </c>
+      <c r="H3">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>517.29</v>
+      </c>
+      <c r="C4">
+        <v>490.09</v>
+      </c>
+      <c r="D4">
+        <v>460.99</v>
+      </c>
+      <c r="E4">
+        <v>-27.2</v>
+      </c>
+      <c r="F4">
+        <v>-5.26</v>
+      </c>
+      <c r="G4">
+        <v>-29.1</v>
+      </c>
+      <c r="H4">
+        <v>-5.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3150.65</v>
+      </c>
+      <c r="C5">
+        <v>2866.63</v>
+      </c>
+      <c r="D5">
+        <v>2878.7</v>
+      </c>
+      <c r="E5">
+        <v>-284.02</v>
+      </c>
+      <c r="F5">
+        <v>-9.01</v>
+      </c>
+      <c r="G5">
+        <v>12.07</v>
+      </c>
+      <c r="H5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4154.75</v>
+      </c>
+      <c r="C6">
+        <v>3776.99</v>
+      </c>
+      <c r="D6">
+        <v>3562.62</v>
+      </c>
+      <c r="E6">
+        <v>-377.76</v>
+      </c>
+      <c r="F6">
+        <v>-9.09</v>
+      </c>
+      <c r="G6">
+        <v>-214.37</v>
+      </c>
+      <c r="H6">
+        <v>-5.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1631.05</v>
+      </c>
+      <c r="C7">
+        <v>1470.05</v>
+      </c>
+      <c r="D7">
+        <v>1262.3499999999999</v>
+      </c>
+      <c r="E7">
+        <v>-161</v>
+      </c>
+      <c r="F7">
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="G7">
+        <v>-207.7</v>
+      </c>
+      <c r="H7">
+        <v>-14.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>233.86</v>
+      </c>
+      <c r="C8">
+        <v>210.45</v>
+      </c>
+      <c r="D8">
+        <v>172.11</v>
+      </c>
+      <c r="E8">
+        <v>-23.41</v>
+      </c>
+      <c r="F8">
+        <v>-10.01</v>
+      </c>
+      <c r="G8">
+        <v>-38.340000000000003</v>
+      </c>
+      <c r="H8">
+        <v>-18.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>657.65</v>
+      </c>
+      <c r="C9">
+        <v>568.79999999999995</v>
+      </c>
+      <c r="D9">
+        <v>428.15</v>
+      </c>
+      <c r="E9">
+        <v>-88.85</v>
+      </c>
+      <c r="F9">
+        <v>-13.51</v>
+      </c>
+      <c r="G9">
+        <v>-140.65</v>
+      </c>
+      <c r="H9">
+        <v>-24.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>337.67</v>
+      </c>
+      <c r="C10">
+        <v>289.55</v>
+      </c>
+      <c r="D10">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="E10">
+        <v>-48.12</v>
+      </c>
+      <c r="F10">
+        <v>-14.25</v>
+      </c>
+      <c r="G10">
+        <v>-33.15</v>
+      </c>
+      <c r="H10">
+        <v>-11.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2081.38</v>
+      </c>
+      <c r="C11">
+        <v>1776.37</v>
+      </c>
+      <c r="D11">
+        <v>1780.58</v>
+      </c>
+      <c r="E11">
+        <v>-305.01</v>
+      </c>
+      <c r="F11">
+        <v>-14.65</v>
+      </c>
+      <c r="G11">
+        <v>4.21</v>
+      </c>
+      <c r="H11">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>13461.359999999997</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-777.9</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-5.7787623241633841E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2866.63</v>
+      </c>
+      <c r="C2">
+        <v>2878.7</v>
+      </c>
+      <c r="D2">
+        <v>2897.83</v>
+      </c>
+      <c r="E2">
+        <v>12.07</v>
+      </c>
+      <c r="F2">
+        <v>0.42</v>
+      </c>
+      <c r="G2">
+        <v>19.13</v>
+      </c>
+      <c r="H2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1776.37</v>
+      </c>
+      <c r="C3">
+        <v>1780.58</v>
+      </c>
+      <c r="D3">
+        <v>1807.38</v>
+      </c>
+      <c r="E3">
+        <v>4.21</v>
+      </c>
+      <c r="F3">
+        <v>0.24</v>
+      </c>
+      <c r="G3">
+        <v>26.8</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1793.37</v>
+      </c>
+      <c r="C4">
+        <v>1738.75</v>
+      </c>
+      <c r="D4">
+        <v>1600.29</v>
+      </c>
+      <c r="E4">
+        <v>-54.62</v>
+      </c>
+      <c r="F4">
+        <v>-3.05</v>
+      </c>
+      <c r="G4">
+        <v>-138.47</v>
+      </c>
+      <c r="H4">
+        <v>-7.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3776.99</v>
+      </c>
+      <c r="C5">
+        <v>3562.62</v>
+      </c>
+      <c r="D5">
+        <v>3133.72</v>
+      </c>
+      <c r="E5">
+        <v>-214.37</v>
+      </c>
+      <c r="F5">
+        <v>-5.68</v>
+      </c>
+      <c r="G5">
+        <v>-428.9</v>
+      </c>
+      <c r="H5">
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>490.09</v>
+      </c>
+      <c r="C6">
+        <v>460.99</v>
+      </c>
+      <c r="D6">
+        <v>447.34</v>
+      </c>
+      <c r="E6">
+        <v>-29.1</v>
+      </c>
+      <c r="F6">
+        <v>-5.94</v>
+      </c>
+      <c r="G6">
+        <v>-13.65</v>
+      </c>
+      <c r="H6">
+        <v>-2.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>289.55</v>
+      </c>
+      <c r="C7">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="D7">
+        <v>251.3</v>
+      </c>
+      <c r="E7">
+        <v>-33.15</v>
+      </c>
+      <c r="F7">
+        <v>-11.45</v>
+      </c>
+      <c r="G7">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1470.05</v>
+      </c>
+      <c r="C8">
+        <v>1262.3499999999999</v>
+      </c>
+      <c r="D8">
+        <v>1399.1</v>
+      </c>
+      <c r="E8">
+        <v>-207.7</v>
+      </c>
+      <c r="F8">
+        <v>-14.13</v>
+      </c>
+      <c r="G8">
+        <v>136.75</v>
+      </c>
+      <c r="H8">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>210.45</v>
+      </c>
+      <c r="C9">
+        <v>172.11</v>
+      </c>
+      <c r="D9">
+        <v>148.32</v>
+      </c>
+      <c r="E9">
+        <v>-38.340000000000003</v>
+      </c>
+      <c r="F9">
+        <v>-18.22</v>
+      </c>
+      <c r="G9">
+        <v>-23.8</v>
+      </c>
+      <c r="H9">
+        <v>-13.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>568.79999999999995</v>
+      </c>
+      <c r="C10">
+        <v>428.15</v>
+      </c>
+      <c r="D10">
+        <v>359.75</v>
+      </c>
+      <c r="E10">
+        <v>-140.65</v>
+      </c>
+      <c r="F10">
+        <v>-24.73</v>
+      </c>
+      <c r="G10">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="H10">
+        <v>-15.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>219.06</v>
+      </c>
+      <c r="C11">
+        <v>142.81</v>
+      </c>
+      <c r="D11">
+        <v>151.15</v>
+      </c>
+      <c r="E11">
+        <v>-76.25</v>
+      </c>
+      <c r="F11">
+        <v>-34.81</v>
+      </c>
+      <c r="G11">
+        <v>8.34</v>
+      </c>
+      <c r="H11">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>12683.46</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-487.3</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-3.8420115646676856E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1262.3499999999999</v>
+      </c>
+      <c r="C2">
+        <v>1399.1</v>
+      </c>
+      <c r="D2">
+        <v>1140.8499999999999</v>
+      </c>
+      <c r="E2">
+        <v>136.75</v>
+      </c>
+      <c r="F2">
+        <v>10.83</v>
+      </c>
+      <c r="G2">
+        <v>-258.25</v>
+      </c>
+      <c r="H2">
+        <v>-18.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>142.81</v>
+      </c>
+      <c r="C3">
+        <v>151.15</v>
+      </c>
+      <c r="D3">
+        <v>150.76</v>
+      </c>
+      <c r="E3">
+        <v>8.34</v>
+      </c>
+      <c r="F3">
+        <v>5.84</v>
+      </c>
+      <c r="G3">
+        <v>-0.39</v>
+      </c>
+      <c r="H3">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1780.58</v>
+      </c>
+      <c r="C4">
+        <v>1807.38</v>
+      </c>
+      <c r="D4">
+        <v>1638.67</v>
+      </c>
+      <c r="E4">
+        <v>26.8</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>-168.7</v>
+      </c>
+      <c r="H4">
+        <v>-9.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2878.7</v>
+      </c>
+      <c r="C5">
+        <v>2897.83</v>
+      </c>
+      <c r="D5">
+        <v>3126.66</v>
+      </c>
+      <c r="E5">
+        <v>19.13</v>
+      </c>
+      <c r="F5">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>228.83</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="C6">
+        <v>251.3</v>
+      </c>
+      <c r="D6">
+        <v>244.8</v>
+      </c>
+      <c r="E6">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>-1.99</v>
+      </c>
+      <c r="G6">
+        <v>-6.5</v>
+      </c>
+      <c r="H6">
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>460.99</v>
+      </c>
+      <c r="C7">
+        <v>447.34</v>
+      </c>
+      <c r="D7">
+        <v>422.43</v>
+      </c>
+      <c r="E7">
+        <v>-13.65</v>
+      </c>
+      <c r="F7">
+        <v>-2.96</v>
+      </c>
+      <c r="G7">
+        <v>-24.91</v>
+      </c>
+      <c r="H7">
+        <v>-5.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1738.75</v>
+      </c>
+      <c r="C8">
+        <v>1600.29</v>
+      </c>
+      <c r="D8">
+        <v>1517.24</v>
+      </c>
+      <c r="E8">
+        <v>-138.47</v>
+      </c>
+      <c r="F8">
+        <v>-7.96</v>
+      </c>
+      <c r="G8">
+        <v>-83.05</v>
+      </c>
+      <c r="H8">
+        <v>-5.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3562.62</v>
+      </c>
+      <c r="C9">
+        <v>3133.72</v>
+      </c>
+      <c r="D9">
+        <v>3032.04</v>
+      </c>
+      <c r="E9">
+        <v>-428.9</v>
+      </c>
+      <c r="F9">
+        <v>-12.04</v>
+      </c>
+      <c r="G9">
+        <v>-101.68</v>
+      </c>
+      <c r="H9">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>172.11</v>
+      </c>
+      <c r="C10">
+        <v>148.32</v>
+      </c>
+      <c r="D10">
+        <v>137.79</v>
+      </c>
+      <c r="E10">
+        <v>-23.8</v>
+      </c>
+      <c r="F10">
+        <v>-13.83</v>
+      </c>
+      <c r="G10">
+        <v>-10.53</v>
+      </c>
+      <c r="H10">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>428.15</v>
+      </c>
+      <c r="C11">
+        <v>359.75</v>
+      </c>
+      <c r="D11">
+        <v>325.45</v>
+      </c>
+      <c r="E11">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="F11">
+        <v>-15.98</v>
+      </c>
+      <c r="G11">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="H11">
+        <v>-9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>12196.179999999998</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-459.47999999999996</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-3.76740913958305E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2897.83</v>
+      </c>
+      <c r="C2">
+        <v>3126.66</v>
+      </c>
+      <c r="D2">
+        <v>3598.37</v>
+      </c>
+      <c r="E2">
+        <v>228.83</v>
+      </c>
+      <c r="F2">
+        <v>7.9</v>
+      </c>
+      <c r="G2">
+        <v>471.71</v>
+      </c>
+      <c r="H2">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>151.15</v>
+      </c>
+      <c r="C3">
+        <v>150.76</v>
+      </c>
+      <c r="D3">
+        <v>167.63</v>
+      </c>
+      <c r="E3">
+        <v>-0.39</v>
+      </c>
+      <c r="F3">
+        <v>-0.26</v>
+      </c>
+      <c r="G3">
+        <v>16.87</v>
+      </c>
+      <c r="H3">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>4670.95</v>
+        <v>251.3</v>
       </c>
       <c r="C4">
-        <v>4828.95</v>
+        <v>244.8</v>
       </c>
       <c r="D4">
-        <v>4908.55</v>
+        <v>251.9</v>
       </c>
       <c r="E4">
-        <v>158</v>
+        <v>-6.5</v>
       </c>
       <c r="F4">
-        <v>79.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.59</v>
+      </c>
+      <c r="G4">
+        <v>7.1</v>
+      </c>
+      <c r="H4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2166.5500000000002</v>
+        <v>3133.72</v>
       </c>
       <c r="C5">
-        <v>2215.3000000000002</v>
+        <v>3032.04</v>
       </c>
       <c r="D5">
-        <v>2438.75</v>
+        <v>3355.47</v>
       </c>
       <c r="E5">
-        <v>48.75</v>
+        <v>-101.68</v>
       </c>
       <c r="F5">
-        <v>223.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.24</v>
+      </c>
+      <c r="G5">
+        <v>323.43</v>
+      </c>
+      <c r="H5">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1600.29</v>
+      </c>
+      <c r="C6">
+        <v>1517.24</v>
+      </c>
+      <c r="D6">
+        <v>1647.37</v>
+      </c>
+      <c r="E6">
+        <v>-83.05</v>
+      </c>
+      <c r="F6">
+        <v>-5.19</v>
+      </c>
+      <c r="G6">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="H6">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>447.34</v>
+      </c>
+      <c r="C7">
+        <v>422.43</v>
+      </c>
+      <c r="D7">
+        <v>486.95</v>
+      </c>
+      <c r="E7">
+        <v>-24.91</v>
+      </c>
+      <c r="F7">
+        <v>-5.57</v>
+      </c>
+      <c r="G7">
+        <v>64.52</v>
+      </c>
+      <c r="H7">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>148.32</v>
+      </c>
+      <c r="C8">
+        <v>137.79</v>
+      </c>
+      <c r="D8">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="E8">
+        <v>-10.53</v>
+      </c>
+      <c r="F8">
+        <v>-7.1</v>
+      </c>
+      <c r="G8">
+        <v>25.07</v>
+      </c>
+      <c r="H8">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1807.38</v>
+      </c>
+      <c r="C9">
+        <v>1638.67</v>
+      </c>
+      <c r="D9">
+        <v>1749.57</v>
+      </c>
+      <c r="E9">
+        <v>-168.7</v>
+      </c>
+      <c r="F9">
+        <v>-9.33</v>
+      </c>
+      <c r="G9">
+        <v>110.9</v>
+      </c>
+      <c r="H9">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>359.75</v>
+      </c>
+      <c r="C10">
+        <v>325.45</v>
+      </c>
+      <c r="D10">
+        <v>420.15</v>
+      </c>
+      <c r="E10">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="F10">
+        <v>-9.5299999999999994</v>
+      </c>
+      <c r="G10">
+        <v>94.7</v>
+      </c>
+      <c r="H10">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1399.1</v>
+      </c>
+      <c r="C11">
+        <v>1140.8499999999999</v>
+      </c>
+      <c r="D11">
+        <v>1272.9000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-258.25</v>
+      </c>
+      <c r="F11">
+        <v>-18.46</v>
+      </c>
+      <c r="G11">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="H11">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>11736.690000000002</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>1376.49</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>0.11728093695922784</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>325.45</v>
+      </c>
+      <c r="C2">
+        <v>420.15</v>
+      </c>
+      <c r="D2">
+        <v>478.8</v>
+      </c>
+      <c r="E2">
+        <v>94.7</v>
+      </c>
+      <c r="F2">
+        <v>29.1</v>
+      </c>
+      <c r="G2">
+        <v>58.65</v>
+      </c>
+      <c r="H2">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>137.79</v>
+      </c>
+      <c r="C3">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="D3">
+        <v>173.63</v>
+      </c>
+      <c r="E3">
+        <v>25.07</v>
+      </c>
+      <c r="F3">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="G3">
+        <v>10.77</v>
+      </c>
+      <c r="H3">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>422.43</v>
+      </c>
+      <c r="C4">
+        <v>486.95</v>
+      </c>
+      <c r="D4">
+        <v>500.65</v>
+      </c>
+      <c r="E4">
+        <v>64.52</v>
+      </c>
+      <c r="F4">
+        <v>15.27</v>
+      </c>
+      <c r="G4">
+        <v>13.7</v>
+      </c>
+      <c r="H4">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3126.66</v>
+      </c>
+      <c r="C5">
+        <v>3598.37</v>
+      </c>
+      <c r="D5">
+        <v>3904.4</v>
+      </c>
+      <c r="E5">
+        <v>471.71</v>
+      </c>
+      <c r="F5">
+        <v>15.09</v>
+      </c>
+      <c r="G5">
+        <v>306.02999999999997</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B6">
-        <v>1889.4</v>
+        <v>1140.8499999999999</v>
       </c>
       <c r="C6">
-        <v>1907.1</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="D6">
-        <v>1846.25</v>
+        <v>1186.25</v>
       </c>
       <c r="E6">
-        <v>17.7</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="F6">
-        <v>-60.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.57</v>
+      </c>
+      <c r="G6">
+        <v>-86.65</v>
+      </c>
+      <c r="H6">
+        <v>-6.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>150.76</v>
+      </c>
+      <c r="C7">
+        <v>167.63</v>
+      </c>
+      <c r="D7">
+        <v>162.22999999999999</v>
+      </c>
+      <c r="E7">
+        <v>16.87</v>
+      </c>
+      <c r="F7">
+        <v>11.19</v>
+      </c>
+      <c r="G7">
+        <v>-5.4</v>
+      </c>
+      <c r="H7">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3032.04</v>
+      </c>
+      <c r="C8">
+        <v>3355.47</v>
+      </c>
+      <c r="D8">
+        <v>3522.94</v>
+      </c>
+      <c r="E8">
+        <v>323.43</v>
+      </c>
+      <c r="F8">
+        <v>10.67</v>
+      </c>
+      <c r="G8">
+        <v>167.47</v>
+      </c>
+      <c r="H8">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1517.24</v>
+      </c>
+      <c r="C9">
+        <v>1647.37</v>
+      </c>
+      <c r="D9">
+        <v>1752.02</v>
+      </c>
+      <c r="E9">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="F9">
+        <v>8.58</v>
+      </c>
+      <c r="G9">
+        <v>104.65</v>
+      </c>
+      <c r="H9">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1638.67</v>
+      </c>
+      <c r="C10">
+        <v>1749.57</v>
+      </c>
+      <c r="D10">
+        <v>1789.25</v>
+      </c>
+      <c r="E10">
+        <v>110.9</v>
+      </c>
+      <c r="F10">
+        <v>6.77</v>
+      </c>
+      <c r="G10">
+        <v>39.67</v>
+      </c>
+      <c r="H10">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>244.8</v>
+      </c>
+      <c r="C11">
+        <v>251.9</v>
+      </c>
+      <c r="D11">
+        <v>268.14999999999998</v>
+      </c>
+      <c r="E11">
+        <v>7.1</v>
+      </c>
+      <c r="F11">
+        <v>2.9</v>
+      </c>
+      <c r="G11">
+        <v>16.25</v>
+      </c>
+      <c r="H11">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>13113.17</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>625.14</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>4.7672683264229777E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>420.15</v>
+      </c>
+      <c r="C2">
+        <v>478.8</v>
+      </c>
+      <c r="D2">
+        <v>403.95</v>
+      </c>
+      <c r="E2">
+        <v>58.65</v>
+      </c>
+      <c r="F2">
+        <v>13.96</v>
+      </c>
+      <c r="G2">
+        <v>-74.849999999999994</v>
+      </c>
+      <c r="H2">
+        <v>-15.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3598.37</v>
+      </c>
+      <c r="C3">
+        <v>3904.4</v>
+      </c>
+      <c r="D3">
+        <v>3977.18</v>
+      </c>
+      <c r="E3">
+        <v>306.02999999999997</v>
+      </c>
+      <c r="F3">
+        <v>8.5</v>
+      </c>
+      <c r="G3">
+        <v>72.78</v>
+      </c>
+      <c r="H3">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="C4">
+        <v>173.63</v>
+      </c>
+      <c r="D4">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="E4">
+        <v>10.77</v>
+      </c>
+      <c r="F4">
+        <v>6.61</v>
+      </c>
+      <c r="G4">
+        <v>-23.55</v>
+      </c>
+      <c r="H4">
+        <v>-13.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>251.9</v>
+      </c>
+      <c r="C5">
+        <v>268.14999999999998</v>
+      </c>
+      <c r="D5">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="E5">
+        <v>16.25</v>
+      </c>
+      <c r="F5">
+        <v>6.45</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1647.37</v>
+      </c>
+      <c r="C6">
+        <v>1752.02</v>
+      </c>
+      <c r="D6">
+        <v>1823.15</v>
+      </c>
+      <c r="E6">
+        <v>104.65</v>
+      </c>
+      <c r="F6">
+        <v>6.35</v>
+      </c>
+      <c r="G6">
+        <v>71.13</v>
+      </c>
+      <c r="H6">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3355.47</v>
+      </c>
+      <c r="C7">
+        <v>3522.94</v>
+      </c>
+      <c r="D7">
+        <v>3297.55</v>
+      </c>
+      <c r="E7">
+        <v>167.47</v>
+      </c>
+      <c r="F7">
+        <v>4.99</v>
+      </c>
+      <c r="G7">
+        <v>-225.39</v>
+      </c>
+      <c r="H7">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>486.95</v>
+      </c>
+      <c r="C8">
+        <v>500.65</v>
+      </c>
+      <c r="D8">
+        <v>492.48</v>
+      </c>
+      <c r="E8">
+        <v>13.7</v>
+      </c>
+      <c r="F8">
+        <v>2.81</v>
+      </c>
+      <c r="G8">
+        <v>-8.17</v>
+      </c>
+      <c r="H8">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1749.57</v>
+      </c>
+      <c r="C9">
+        <v>1789.25</v>
+      </c>
+      <c r="D9">
+        <v>1801.48</v>
+      </c>
+      <c r="E9">
+        <v>39.67</v>
+      </c>
+      <c r="F9">
+        <v>2.27</v>
+      </c>
+      <c r="G9">
+        <v>12.23</v>
+      </c>
+      <c r="H9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>167.63</v>
+      </c>
+      <c r="C10">
+        <v>162.22999999999999</v>
+      </c>
+      <c r="D10">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="E10">
+        <v>-5.4</v>
+      </c>
+      <c r="F10">
+        <v>-3.22</v>
+      </c>
+      <c r="G10">
+        <v>-15.71</v>
+      </c>
+      <c r="H10">
+        <v>-9.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1272.9000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1186.25</v>
+      </c>
+      <c r="D11">
+        <v>1239.55</v>
+      </c>
+      <c r="E11">
+        <v>-86.65</v>
+      </c>
+      <c r="F11">
+        <v>-6.81</v>
+      </c>
+      <c r="G11">
+        <v>53.3</v>
+      </c>
+      <c r="H11">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>13738.32</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-135.73000000000002</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-9.8796650536601294E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>4205.9399999999996</v>
+      </c>
+      <c r="C2">
+        <v>4430.63</v>
+      </c>
+      <c r="D2">
+        <v>4472.6499999999996</v>
+      </c>
+      <c r="E2">
+        <v>224.69</v>
+      </c>
+      <c r="F2">
+        <v>5.34</v>
+      </c>
+      <c r="G2">
+        <v>42.02</v>
+      </c>
+      <c r="H2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>378.32</v>
+      </c>
+      <c r="C3">
+        <v>387.76</v>
+      </c>
+      <c r="D3">
+        <v>383.36</v>
+      </c>
+      <c r="E3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="H3">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1740.19</v>
+      </c>
+      <c r="C4">
+        <v>1781.08</v>
+      </c>
+      <c r="D4">
+        <v>1818.34</v>
+      </c>
+      <c r="E4">
+        <v>40.89</v>
+      </c>
+      <c r="F4">
+        <v>2.35</v>
+      </c>
+      <c r="G4">
+        <v>37.26</v>
+      </c>
+      <c r="H4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>266.81</v>
+      </c>
+      <c r="C5">
+        <v>272.14999999999998</v>
+      </c>
+      <c r="D5">
+        <v>267.69</v>
+      </c>
+      <c r="E5">
+        <v>5.34</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-4.46</v>
+      </c>
+      <c r="H5">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2865.44</v>
+      </c>
+      <c r="C6">
+        <v>2914.23</v>
+      </c>
+      <c r="D6">
+        <v>3014.93</v>
+      </c>
+      <c r="E6">
+        <v>48.79</v>
+      </c>
+      <c r="F6">
+        <v>1.7</v>
+      </c>
+      <c r="G6">
+        <v>100.7</v>
+      </c>
+      <c r="H6">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1657.1</v>
+      </c>
+      <c r="C7">
+        <v>1684.7</v>
+      </c>
+      <c r="D7">
+        <v>1698.1</v>
+      </c>
+      <c r="E7">
+        <v>27.6</v>
+      </c>
+      <c r="F7">
+        <v>1.67</v>
+      </c>
+      <c r="G7">
+        <v>13.4</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2159.2800000000002</v>
+      </c>
+      <c r="C8">
+        <v>2171.94</v>
+      </c>
+      <c r="D8">
+        <v>2177.38</v>
+      </c>
+      <c r="E8">
+        <v>12.66</v>
+      </c>
+      <c r="F8">
+        <v>0.59</v>
+      </c>
+      <c r="G8">
+        <v>5.45</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>239.2</v>
+      </c>
+      <c r="C9">
+        <v>240.45</v>
+      </c>
+      <c r="D9">
+        <v>210.38</v>
+      </c>
+      <c r="E9">
+        <v>1.25</v>
+      </c>
+      <c r="F9">
+        <v>0.52</v>
+      </c>
+      <c r="G9">
+        <v>-30.07</v>
+      </c>
+      <c r="H9">
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>453.47</v>
+      </c>
+      <c r="C10">
+        <v>455.36</v>
+      </c>
+      <c r="D10">
+        <v>498.26</v>
+      </c>
+      <c r="E10">
+        <v>1.89</v>
+      </c>
+      <c r="F10">
+        <v>0.42</v>
+      </c>
+      <c r="G10">
+        <v>42.9</v>
+      </c>
+      <c r="H10">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>742.95</v>
+      </c>
+      <c r="C11">
+        <v>740.05</v>
+      </c>
+      <c r="D11">
+        <v>739.9</v>
+      </c>
+      <c r="E11">
+        <v>-2.9</v>
+      </c>
+      <c r="F11">
+        <v>-0.39</v>
+      </c>
+      <c r="G11">
+        <v>-0.15</v>
+      </c>
+      <c r="H11">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15078.350000000002</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>202.65</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>1.3439799447552284E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>455.36</v>
+      </c>
+      <c r="C2">
+        <v>498.26</v>
+      </c>
+      <c r="D2">
+        <v>522.37</v>
+      </c>
+      <c r="E2">
+        <v>42.9</v>
+      </c>
+      <c r="F2">
+        <v>9.42</v>
+      </c>
+      <c r="G2">
+        <v>24.11</v>
+      </c>
+      <c r="H2">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2914.23</v>
+      </c>
+      <c r="C3">
+        <v>3014.93</v>
+      </c>
+      <c r="D3">
+        <v>3012</v>
+      </c>
+      <c r="E3">
+        <v>100.7</v>
+      </c>
+      <c r="F3">
+        <v>3.46</v>
+      </c>
+      <c r="G3">
+        <v>-2.93</v>
+      </c>
+      <c r="H3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1781.08</v>
+      </c>
+      <c r="C4">
+        <v>1818.34</v>
+      </c>
+      <c r="D4">
+        <v>1775.37</v>
+      </c>
+      <c r="E4">
+        <v>37.26</v>
+      </c>
+      <c r="F4">
+        <v>2.09</v>
+      </c>
+      <c r="G4">
+        <v>-42.97</v>
+      </c>
+      <c r="H4">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4430.63</v>
+      </c>
+      <c r="C5">
+        <v>4472.6499999999996</v>
+      </c>
+      <c r="D5">
+        <v>4628.16</v>
+      </c>
+      <c r="E5">
+        <v>42.02</v>
+      </c>
+      <c r="F5">
+        <v>0.95</v>
+      </c>
+      <c r="G5">
+        <v>155.51</v>
+      </c>
+      <c r="H5">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1684.7</v>
+      </c>
+      <c r="C6">
+        <v>1698.1</v>
+      </c>
+      <c r="D6">
+        <v>1642.95</v>
+      </c>
+      <c r="E6">
+        <v>13.4</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>-55.15</v>
+      </c>
+      <c r="H6">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2660.25</v>
+        <v>2171.94</v>
       </c>
       <c r="C7">
-        <v>2679.65</v>
+        <v>2177.38</v>
       </c>
       <c r="D7">
-        <v>2727.55</v>
+        <v>2147.2199999999998</v>
       </c>
       <c r="E7">
-        <v>19.399999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="F7">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>-30.16</v>
+      </c>
+      <c r="H7">
+        <v>-1.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>740.05</v>
+      </c>
+      <c r="C8">
+        <v>739.9</v>
+      </c>
+      <c r="D8">
+        <v>737.4</v>
+      </c>
+      <c r="E8">
+        <v>-0.15</v>
+      </c>
+      <c r="F8">
+        <v>-0.02</v>
+      </c>
+      <c r="G8">
+        <v>-2.5</v>
+      </c>
+      <c r="H8">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>387.76</v>
+      </c>
+      <c r="C9">
+        <v>383.36</v>
+      </c>
+      <c r="D9">
+        <v>380.54</v>
+      </c>
+      <c r="E9">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F9">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>-2.82</v>
+      </c>
+      <c r="H9">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>272.14999999999998</v>
+      </c>
+      <c r="C10">
+        <v>267.69</v>
+      </c>
+      <c r="D10">
+        <v>266.27</v>
+      </c>
+      <c r="E10">
+        <v>-4.46</v>
+      </c>
+      <c r="F10">
+        <v>-1.64</v>
+      </c>
+      <c r="G10">
+        <v>-1.42</v>
+      </c>
+      <c r="H10">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>240.45</v>
+      </c>
+      <c r="C11">
+        <v>210.38</v>
+      </c>
+      <c r="D11">
+        <v>235.49</v>
+      </c>
+      <c r="E11">
+        <v>-30.07</v>
+      </c>
+      <c r="F11">
+        <v>-12.51</v>
+      </c>
+      <c r="G11">
+        <v>25.11</v>
+      </c>
+      <c r="H11">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15280.99</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>66.78</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>4.3701357045584088E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>210.38</v>
+      </c>
+      <c r="C2">
+        <v>235.49</v>
+      </c>
+      <c r="D2">
+        <v>239.35</v>
+      </c>
+      <c r="E2">
+        <v>25.11</v>
+      </c>
+      <c r="F2">
+        <v>11.94</v>
+      </c>
+      <c r="G2">
+        <v>3.86</v>
+      </c>
+      <c r="H2">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>498.26</v>
+      </c>
+      <c r="C3">
+        <v>522.37</v>
+      </c>
+      <c r="D3">
+        <v>494.67</v>
+      </c>
+      <c r="E3">
+        <v>24.11</v>
+      </c>
+      <c r="F3">
+        <v>4.84</v>
+      </c>
+      <c r="G3">
+        <v>-27.7</v>
+      </c>
+      <c r="H3">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4472.6499999999996</v>
+      </c>
+      <c r="C4">
+        <v>4628.16</v>
+      </c>
+      <c r="D4">
+        <v>4402.22</v>
+      </c>
+      <c r="E4">
+        <v>155.51</v>
+      </c>
+      <c r="F4">
+        <v>3.48</v>
+      </c>
+      <c r="G4">
+        <v>-225.94</v>
+      </c>
+      <c r="H4">
+        <v>-4.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3014.93</v>
+      </c>
+      <c r="C5">
+        <v>3012</v>
+      </c>
+      <c r="D5">
+        <v>3094.56</v>
+      </c>
+      <c r="E5">
+        <v>-2.93</v>
+      </c>
+      <c r="F5">
+        <v>-0.1</v>
+      </c>
+      <c r="G5">
+        <v>82.57</v>
+      </c>
+      <c r="H5">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>739.9</v>
+      </c>
+      <c r="C6">
+        <v>737.4</v>
+      </c>
+      <c r="D6">
+        <v>729.3</v>
+      </c>
+      <c r="E6">
+        <v>-2.5</v>
+      </c>
+      <c r="F6">
+        <v>-0.34</v>
+      </c>
+      <c r="G6">
+        <v>-8.1</v>
+      </c>
+      <c r="H6">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>267.69</v>
+      </c>
+      <c r="C7">
+        <v>266.27</v>
+      </c>
+      <c r="D7">
+        <v>245.51</v>
+      </c>
+      <c r="E7">
+        <v>-1.42</v>
+      </c>
+      <c r="F7">
+        <v>-0.53</v>
+      </c>
+      <c r="G7">
+        <v>-20.76</v>
+      </c>
+      <c r="H7">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B8">
-        <v>219.05</v>
+        <v>383.36</v>
       </c>
       <c r="C8">
-        <v>218.6</v>
+        <v>380.54</v>
       </c>
       <c r="D8">
-        <v>237.35</v>
+        <v>365.36</v>
       </c>
       <c r="E8">
-        <v>-0.45</v>
+        <v>-2.82</v>
       </c>
       <c r="F8">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.74</v>
+      </c>
+      <c r="G8">
+        <v>-15.18</v>
+      </c>
+      <c r="H8">
+        <v>-3.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2177.38</v>
+      </c>
+      <c r="C9">
+        <v>2147.2199999999998</v>
+      </c>
+      <c r="D9">
+        <v>2044.6</v>
+      </c>
+      <c r="E9">
+        <v>-30.16</v>
+      </c>
+      <c r="F9">
+        <v>-1.39</v>
+      </c>
+      <c r="G9">
+        <v>-102.62</v>
+      </c>
+      <c r="H9">
+        <v>-4.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1818.34</v>
+      </c>
+      <c r="C10">
+        <v>1775.37</v>
+      </c>
+      <c r="D10">
+        <v>1784.16</v>
+      </c>
+      <c r="E10">
+        <v>-42.97</v>
+      </c>
+      <c r="F10">
+        <v>-2.36</v>
+      </c>
+      <c r="G10">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1698.1</v>
+      </c>
+      <c r="C11">
+        <v>1642.95</v>
+      </c>
+      <c r="D11">
+        <v>1691.75</v>
+      </c>
+      <c r="E11">
+        <v>-55.15</v>
+      </c>
+      <c r="F11">
+        <v>-3.25</v>
+      </c>
+      <c r="G11">
+        <v>48.8</v>
+      </c>
+      <c r="H11">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15347.77</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-256.27999999999997</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-1.6698191333333764E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1642.95</v>
+      </c>
+      <c r="C2">
+        <v>1691.75</v>
+      </c>
+      <c r="D2">
+        <v>1653.05</v>
+      </c>
+      <c r="E2">
+        <v>48.8</v>
+      </c>
+      <c r="F2">
+        <v>2.97</v>
+      </c>
+      <c r="G2">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="H2">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>3012</v>
+      </c>
+      <c r="C3">
+        <v>3094.56</v>
+      </c>
+      <c r="D3">
+        <v>3146.43</v>
+      </c>
+      <c r="E3">
+        <v>82.57</v>
+      </c>
+      <c r="F3">
+        <v>2.74</v>
+      </c>
+      <c r="G3">
+        <v>51.87</v>
+      </c>
+      <c r="H3">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>235.49</v>
+      </c>
+      <c r="C4">
+        <v>239.35</v>
+      </c>
+      <c r="D4">
+        <v>238.86</v>
+      </c>
+      <c r="E4">
+        <v>3.86</v>
+      </c>
+      <c r="F4">
+        <v>1.64</v>
+      </c>
+      <c r="G4">
+        <v>-0.48</v>
+      </c>
+      <c r="H4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1775.37</v>
+      </c>
+      <c r="C5">
+        <v>1784.16</v>
+      </c>
+      <c r="D5">
+        <v>1846.81</v>
+      </c>
+      <c r="E5">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>62.65</v>
+      </c>
+      <c r="H5">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>737.4</v>
+      </c>
+      <c r="C6">
+        <v>729.3</v>
+      </c>
+      <c r="D6">
+        <v>748.15</v>
+      </c>
+      <c r="E6">
+        <v>-8.1</v>
+      </c>
+      <c r="F6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G6">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>380.54</v>
+      </c>
+      <c r="C7">
+        <v>365.36</v>
+      </c>
+      <c r="D7">
+        <v>365.51</v>
+      </c>
+      <c r="E7">
+        <v>-15.18</v>
+      </c>
+      <c r="F7">
+        <v>-3.99</v>
+      </c>
+      <c r="G7">
+        <v>0.15</v>
+      </c>
+      <c r="H7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2147.2199999999998</v>
+      </c>
+      <c r="C8">
+        <v>2044.6</v>
+      </c>
+      <c r="D8">
+        <v>2101.14</v>
+      </c>
+      <c r="E8">
+        <v>-102.62</v>
+      </c>
+      <c r="F8">
+        <v>-4.78</v>
+      </c>
+      <c r="G8">
+        <v>56.55</v>
+      </c>
+      <c r="H8">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B9">
-        <v>607.85</v>
+        <v>4628.16</v>
       </c>
       <c r="C9">
-        <v>601.6</v>
+        <v>4402.22</v>
       </c>
       <c r="D9">
-        <v>614.5</v>
+        <v>4457.75</v>
       </c>
       <c r="E9">
-        <v>-6.25</v>
+        <v>-225.94</v>
       </c>
       <c r="F9">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-4.88</v>
+      </c>
+      <c r="G9">
+        <v>55.52</v>
+      </c>
+      <c r="H9">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>522.37</v>
+      </c>
+      <c r="C10">
+        <v>494.67</v>
+      </c>
+      <c r="D10">
+        <v>537.52</v>
+      </c>
+      <c r="E10">
+        <v>-27.7</v>
+      </c>
+      <c r="F10">
+        <v>-5.3</v>
+      </c>
+      <c r="G10">
+        <v>42.85</v>
+      </c>
+      <c r="H10">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>266.27</v>
+      </c>
+      <c r="C11">
+        <v>245.51</v>
+      </c>
+      <c r="D11">
+        <v>273.52</v>
+      </c>
+      <c r="E11">
+        <v>-20.76</v>
+      </c>
+      <c r="F11">
+        <v>-7.8</v>
+      </c>
+      <c r="G11">
+        <v>28.01</v>
+      </c>
+      <c r="H11">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15091.48</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>277.27</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>1.8372618192516572E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>245.51</v>
+      </c>
+      <c r="C2">
+        <v>273.52</v>
+      </c>
+      <c r="D2">
+        <v>283.17</v>
+      </c>
+      <c r="E2">
+        <v>28.01</v>
+      </c>
+      <c r="F2">
+        <v>11.41</v>
+      </c>
+      <c r="G2">
+        <v>9.65</v>
+      </c>
+      <c r="H2">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>494.67</v>
+      </c>
+      <c r="C3">
+        <v>537.52</v>
+      </c>
+      <c r="D3">
+        <v>562.98</v>
+      </c>
+      <c r="E3">
+        <v>42.85</v>
+      </c>
+      <c r="F3">
+        <v>8.66</v>
+      </c>
+      <c r="G3">
+        <v>25.46</v>
+      </c>
+      <c r="H3">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1784.16</v>
+      </c>
+      <c r="C4">
+        <v>1846.81</v>
+      </c>
+      <c r="D4">
+        <v>1865.04</v>
+      </c>
+      <c r="E4">
+        <v>62.65</v>
+      </c>
+      <c r="F4">
+        <v>3.51</v>
+      </c>
+      <c r="G4">
+        <v>18.23</v>
+      </c>
+      <c r="H4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2044.6</v>
+      </c>
+      <c r="C5">
+        <v>2101.14</v>
+      </c>
+      <c r="D5">
+        <v>2148</v>
+      </c>
+      <c r="E5">
+        <v>56.55</v>
+      </c>
+      <c r="F5">
+        <v>2.77</v>
+      </c>
+      <c r="G5">
+        <v>46.86</v>
+      </c>
+      <c r="H5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>729.3</v>
+      </c>
+      <c r="C6">
+        <v>748.15</v>
+      </c>
+      <c r="D6">
+        <v>736.5</v>
+      </c>
+      <c r="E6">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.58</v>
+      </c>
+      <c r="G6">
+        <v>-11.65</v>
+      </c>
+      <c r="H6">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3094.56</v>
+      </c>
+      <c r="C7">
+        <v>3146.43</v>
+      </c>
+      <c r="D7">
+        <v>3283.15</v>
+      </c>
+      <c r="E7">
+        <v>51.87</v>
+      </c>
+      <c r="F7">
+        <v>1.68</v>
+      </c>
+      <c r="G7">
+        <v>136.72</v>
+      </c>
+      <c r="H7">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4402.22</v>
+      </c>
+      <c r="C8">
+        <v>4457.75</v>
+      </c>
+      <c r="D8">
+        <v>4420.41</v>
+      </c>
+      <c r="E8">
+        <v>55.52</v>
+      </c>
+      <c r="F8">
+        <v>1.26</v>
+      </c>
+      <c r="G8">
+        <v>-37.33</v>
+      </c>
+      <c r="H8">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>365.36</v>
+      </c>
+      <c r="C9">
+        <v>365.51</v>
+      </c>
+      <c r="D9">
+        <v>362.84</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>0.04</v>
+      </c>
+      <c r="G9">
+        <v>-2.67</v>
+      </c>
+      <c r="H9">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>239.35</v>
+      </c>
+      <c r="C10">
+        <v>238.86</v>
+      </c>
+      <c r="D10">
+        <v>226.96</v>
+      </c>
+      <c r="E10">
+        <v>-0.48</v>
+      </c>
+      <c r="F10">
+        <v>-0.2</v>
+      </c>
+      <c r="G10">
+        <v>-11.9</v>
+      </c>
+      <c r="H10">
+        <v>-4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>1691.75</v>
+      </c>
+      <c r="C11">
+        <v>1653.05</v>
+      </c>
+      <c r="D11">
+        <v>1680.95</v>
+      </c>
+      <c r="E11">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="F11">
+        <v>-2.29</v>
+      </c>
+      <c r="G11">
+        <v>27.9</v>
+      </c>
+      <c r="H11">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15368.74</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>201.27</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>1.3096063828264387E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>537.52</v>
+      </c>
+      <c r="C2">
+        <v>562.98</v>
+      </c>
+      <c r="D2">
+        <v>543.65</v>
+      </c>
+      <c r="E2">
+        <v>25.46</v>
+      </c>
+      <c r="F2">
+        <v>4.74</v>
+      </c>
+      <c r="G2">
+        <v>-19.329999999999998</v>
+      </c>
+      <c r="H2">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3146.43</v>
+      </c>
+      <c r="C3">
+        <v>3283.15</v>
+      </c>
+      <c r="D3">
+        <v>3234.46</v>
+      </c>
+      <c r="E3">
+        <v>136.72</v>
+      </c>
+      <c r="F3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G3">
+        <v>-48.69</v>
+      </c>
+      <c r="H3">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>273.52</v>
+      </c>
+      <c r="C4">
+        <v>283.17</v>
+      </c>
+      <c r="D4">
+        <v>275.97000000000003</v>
+      </c>
+      <c r="E4">
+        <v>9.65</v>
+      </c>
+      <c r="F4">
+        <v>3.53</v>
+      </c>
+      <c r="G4">
+        <v>-7.2</v>
+      </c>
+      <c r="H4">
+        <v>-2.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2101.14</v>
+      </c>
+      <c r="C5">
+        <v>2148</v>
+      </c>
+      <c r="D5">
+        <v>2121.06</v>
+      </c>
+      <c r="E5">
+        <v>46.86</v>
+      </c>
+      <c r="F5">
+        <v>2.23</v>
+      </c>
+      <c r="G5">
+        <v>-26.95</v>
+      </c>
+      <c r="H5">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1653.05</v>
+      </c>
+      <c r="C6">
+        <v>1680.95</v>
+      </c>
+      <c r="D6">
+        <v>1685.95</v>
+      </c>
+      <c r="E6">
+        <v>27.9</v>
+      </c>
+      <c r="F6">
+        <v>1.69</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1846.81</v>
+      </c>
+      <c r="C7">
+        <v>1865.04</v>
+      </c>
+      <c r="D7">
+        <v>1830.46</v>
+      </c>
+      <c r="E7">
+        <v>18.23</v>
+      </c>
+      <c r="F7">
+        <v>0.99</v>
+      </c>
+      <c r="G7">
+        <v>-34.58</v>
+      </c>
+      <c r="H7">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>365.51</v>
+      </c>
+      <c r="C8">
+        <v>362.84</v>
+      </c>
+      <c r="D8">
+        <v>366.8</v>
+      </c>
+      <c r="E8">
+        <v>-2.67</v>
+      </c>
+      <c r="F8">
+        <v>-0.73</v>
+      </c>
+      <c r="G8">
+        <v>3.96</v>
+      </c>
+      <c r="H8">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4457.75</v>
+      </c>
+      <c r="C9">
+        <v>4420.41</v>
+      </c>
+      <c r="D9">
+        <v>4414.18</v>
+      </c>
+      <c r="E9">
+        <v>-37.33</v>
+      </c>
+      <c r="F9">
+        <v>-0.84</v>
+      </c>
+      <c r="G9">
+        <v>-6.23</v>
+      </c>
+      <c r="H9">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B10">
-        <v>4862.55</v>
+        <v>748.15</v>
       </c>
       <c r="C10">
-        <v>4802</v>
+        <v>736.5</v>
       </c>
       <c r="D10">
-        <v>5091.3999999999996</v>
+        <v>744.3</v>
       </c>
       <c r="E10">
-        <v>-60.55</v>
+        <v>-11.65</v>
       </c>
       <c r="F10">
-        <v>289.39999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.56</v>
+      </c>
+      <c r="G10">
+        <v>7.8</v>
+      </c>
+      <c r="H10">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>238.86</v>
+      </c>
+      <c r="C11">
+        <v>226.96</v>
+      </c>
+      <c r="D11">
+        <v>218.04</v>
+      </c>
+      <c r="E11">
+        <v>-11.9</v>
+      </c>
+      <c r="F11">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="G11">
+        <v>-8.92</v>
+      </c>
+      <c r="H11">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15570</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-135.14000000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-8.6795118818240209E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>362.84</v>
+      </c>
+      <c r="C2">
+        <v>366.8</v>
+      </c>
+      <c r="D2">
+        <v>338.46</v>
+      </c>
+      <c r="E2">
+        <v>3.96</v>
+      </c>
+      <c r="F2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G2">
+        <v>-28.34</v>
+      </c>
+      <c r="H2">
+        <v>-7.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B3">
+        <v>736.5</v>
+      </c>
+      <c r="C3">
+        <v>744.3</v>
+      </c>
+      <c r="D3">
+        <v>697.3</v>
+      </c>
+      <c r="E3">
+        <v>7.8</v>
+      </c>
+      <c r="F3">
+        <v>1.06</v>
+      </c>
+      <c r="G3">
+        <v>-47</v>
+      </c>
+      <c r="H3">
+        <v>-6.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1680.95</v>
+      </c>
+      <c r="C4">
+        <v>1685.95</v>
+      </c>
+      <c r="D4">
+        <v>1620.35</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>-65.599999999999994</v>
+      </c>
+      <c r="H4">
+        <v>-3.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4420.41</v>
+      </c>
+      <c r="C5">
+        <v>4414.18</v>
+      </c>
+      <c r="D5">
+        <v>4206.34</v>
+      </c>
+      <c r="E5">
+        <v>-6.23</v>
+      </c>
+      <c r="F5">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>-207.84</v>
+      </c>
+      <c r="H5">
+        <v>-4.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2148</v>
+      </c>
+      <c r="C6">
+        <v>2121.06</v>
+      </c>
+      <c r="D6">
+        <v>1967</v>
+      </c>
+      <c r="E6">
+        <v>-26.95</v>
+      </c>
+      <c r="F6">
+        <v>-1.25</v>
+      </c>
+      <c r="G6">
+        <v>-154.05000000000001</v>
+      </c>
+      <c r="H6">
+        <v>-7.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3283.15</v>
+      </c>
+      <c r="C7">
+        <v>3234.46</v>
+      </c>
+      <c r="D7">
+        <v>2908.36</v>
+      </c>
+      <c r="E7">
+        <v>-48.69</v>
+      </c>
+      <c r="F7">
+        <v>-1.48</v>
+      </c>
+      <c r="G7">
+        <v>-326.10000000000002</v>
+      </c>
+      <c r="H7">
+        <v>-10.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1865.04</v>
+      </c>
+      <c r="C8">
+        <v>1830.46</v>
+      </c>
+      <c r="D8">
+        <v>1786.44</v>
+      </c>
+      <c r="E8">
+        <v>-34.58</v>
+      </c>
+      <c r="F8">
+        <v>-1.85</v>
+      </c>
+      <c r="G8">
+        <v>-44.02</v>
+      </c>
+      <c r="H8">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>283.17</v>
+      </c>
+      <c r="C9">
+        <v>275.97000000000003</v>
+      </c>
+      <c r="D9">
+        <v>230.82</v>
+      </c>
+      <c r="E9">
+        <v>-7.2</v>
+      </c>
+      <c r="F9">
+        <v>-2.54</v>
+      </c>
+      <c r="G9">
+        <v>-45.15</v>
+      </c>
+      <c r="H9">
+        <v>-16.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>562.98</v>
+      </c>
+      <c r="C10">
+        <v>543.65</v>
+      </c>
+      <c r="D10">
+        <v>521.63</v>
+      </c>
+      <c r="E10">
+        <v>-19.329999999999998</v>
+      </c>
+      <c r="F10">
+        <v>-3.43</v>
+      </c>
+      <c r="G10">
+        <v>-22.02</v>
+      </c>
+      <c r="H10">
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B11">
-        <v>483.7</v>
+        <v>226.96</v>
       </c>
       <c r="C11">
-        <v>463.25</v>
+        <v>218.04</v>
       </c>
       <c r="D11">
-        <v>493.75</v>
+        <v>206.72</v>
       </c>
       <c r="E11">
-        <v>-20.45</v>
+        <v>-8.92</v>
       </c>
       <c r="F11">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>SUM(C2:C11)</f>
-        <v>18478.2</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D2:D11)</f>
-        <v>19182.2</v>
-      </c>
-      <c r="F13">
-        <f>SUM(F2:F11)</f>
-        <v>703.99999999999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <f>D13-C13</f>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>C13*5</f>
-        <v>92391</v>
-      </c>
-      <c r="F16">
-        <f>F13*5</f>
-        <v>3519.9999999999995</v>
+        <v>-3.93</v>
+      </c>
+      <c r="G11">
+        <v>-11.33</v>
+      </c>
+      <c r="H11">
+        <v>-5.19</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>15434.869999999999</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>-951.45</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>-6.164289041631061E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1830.46</v>
+      </c>
+      <c r="C2">
+        <v>1786.44</v>
+      </c>
+      <c r="D2">
+        <v>1872.93</v>
+      </c>
+      <c r="E2">
+        <v>-44.02</v>
+      </c>
+      <c r="F2">
+        <v>-2.4</v>
+      </c>
+      <c r="G2">
+        <v>86.49</v>
+      </c>
+      <c r="H2">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1685.95</v>
+      </c>
+      <c r="C3">
+        <v>1620.35</v>
+      </c>
+      <c r="D3">
+        <v>1631.05</v>
+      </c>
+      <c r="E3">
+        <v>-65.599999999999994</v>
+      </c>
+      <c r="F3">
+        <v>-3.89</v>
+      </c>
+      <c r="G3">
+        <v>10.7</v>
+      </c>
+      <c r="H3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>543.65</v>
+      </c>
+      <c r="C4">
+        <v>521.63</v>
+      </c>
+      <c r="D4">
+        <v>517.29</v>
+      </c>
+      <c r="E4">
+        <v>-22.02</v>
+      </c>
+      <c r="F4">
+        <v>-4.05</v>
+      </c>
+      <c r="G4">
+        <v>-4.33</v>
+      </c>
+      <c r="H4">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4414.18</v>
+      </c>
+      <c r="C5">
+        <v>4206.34</v>
+      </c>
+      <c r="D5">
+        <v>4154.75</v>
+      </c>
+      <c r="E5">
+        <v>-207.84</v>
+      </c>
+      <c r="F5">
+        <v>-4.71</v>
+      </c>
+      <c r="G5">
+        <v>-51.59</v>
+      </c>
+      <c r="H5">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>218.04</v>
+      </c>
+      <c r="C6">
+        <v>206.72</v>
+      </c>
+      <c r="D6">
+        <v>196.35</v>
+      </c>
+      <c r="E6">
+        <v>-11.33</v>
+      </c>
+      <c r="F6">
+        <v>-5.19</v>
+      </c>
+      <c r="G6">
+        <v>-10.36</v>
+      </c>
+      <c r="H6">
+        <v>-5.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>744.3</v>
+      </c>
+      <c r="C7">
+        <v>697.3</v>
+      </c>
+      <c r="D7">
+        <v>657.65</v>
+      </c>
+      <c r="E7">
+        <v>-47</v>
+      </c>
+      <c r="F7">
+        <v>-6.31</v>
+      </c>
+      <c r="G7">
+        <v>-39.65</v>
+      </c>
+      <c r="H7">
+        <v>-5.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2121.06</v>
+      </c>
+      <c r="C8">
+        <v>1967</v>
+      </c>
+      <c r="D8">
+        <v>2081.38</v>
+      </c>
+      <c r="E8">
+        <v>-154.05000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-7.26</v>
+      </c>
+      <c r="G8">
+        <v>114.37</v>
+      </c>
+      <c r="H8">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>366.8</v>
+      </c>
+      <c r="C9">
+        <v>338.46</v>
+      </c>
+      <c r="D9">
+        <v>337.67</v>
+      </c>
+      <c r="E9">
+        <v>-28.34</v>
+      </c>
+      <c r="F9">
+        <v>-7.73</v>
+      </c>
+      <c r="G9">
+        <v>-0.79</v>
+      </c>
+      <c r="H9">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3234.46</v>
+      </c>
+      <c r="C10">
+        <v>2908.36</v>
+      </c>
+      <c r="D10">
+        <v>3150.65</v>
+      </c>
+      <c r="E10">
+        <v>-326.10000000000002</v>
+      </c>
+      <c r="F10">
+        <v>-10.08</v>
+      </c>
+      <c r="G10">
+        <v>242.29</v>
+      </c>
+      <c r="H10">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>275.97000000000003</v>
+      </c>
+      <c r="C11">
+        <v>230.82</v>
+      </c>
+      <c r="D11">
+        <v>233.86</v>
+      </c>
+      <c r="E11">
+        <v>-45.15</v>
+      </c>
+      <c r="F11">
+        <v>-16.36</v>
+      </c>
+      <c r="G11">
+        <v>3.04</v>
+      </c>
+      <c r="H11">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(C2:C20)</f>
+        <v>14483.419999999998</v>
+      </c>
+      <c r="K20">
+        <f>SUM(G2:G20)</f>
+        <v>350.17</v>
+      </c>
+      <c r="M20" s="2">
+        <f>K20/J20</f>
+        <v>2.417730066517439E-2</v>
       </c>
     </row>
   </sheetData>
